--- a/江西/导出模板/市场化,d-3日24时段滚动撮合合同分析结果.xlsx
+++ b/江西/导出模板/市场化,d-3日24时段滚动撮合合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C4B2A9-6DFE-4C40-ADAD-A83710A972A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{783A9685-AAAC-4F87-B321-9F0D263D3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>375.81264970000001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>382.31731427000011</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-6.5046645700001156</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8434.510000000002</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>445.56548003381334</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>453.27744500866089</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1854287.747</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>68495.518000000011</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>66611.991000000009</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>118371.40000000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>75020.63</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>61746.923999999999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>71537.358999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>77500.346000000005</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>71529.774999999994</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>80172.61</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>105540.91</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>65838.307000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>53279.232000000004</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>101282.094</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>55008.085000000006</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>94565.726999999999</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>47156.417000000001</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>98785.493000000002</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>112008.39199999999</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>100929.51199999999</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>85579.934000000008</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>22742.606</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>78347.168000000005</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>57921.52900000001</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>84315.788</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>3949.57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>165.39</v>
+      </c>
+      <c r="F3" s="1">
+        <v>152.65</v>
+      </c>
+      <c r="G3" s="1">
+        <v>209.66000000000003</v>
+      </c>
+      <c r="H3" s="1">
+        <v>136.16</v>
+      </c>
+      <c r="I3" s="1">
+        <v>182.81</v>
+      </c>
+      <c r="J3" s="1">
+        <v>136.69</v>
+      </c>
+      <c r="K3" s="1">
+        <v>169.77</v>
+      </c>
+      <c r="L3" s="1">
+        <v>134.49</v>
+      </c>
+      <c r="M3" s="1">
+        <v>211.62</v>
+      </c>
+      <c r="N3" s="1">
+        <v>171.91</v>
+      </c>
+      <c r="O3" s="1">
+        <v>149.22999999999999</v>
+      </c>
+      <c r="P3" s="1">
+        <v>123.66</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>193.79000000000002</v>
+      </c>
+      <c r="R3" s="1">
+        <v>143.52000000000001</v>
+      </c>
+      <c r="S3" s="1">
+        <v>208.67000000000002</v>
+      </c>
+      <c r="T3" s="1">
+        <v>114.81</v>
+      </c>
+      <c r="U3" s="1">
+        <v>145.76999999999998</v>
+      </c>
+      <c r="V3" s="1">
+        <v>240.02999999999997</v>
+      </c>
+      <c r="W3" s="1">
+        <v>175.86</v>
+      </c>
+      <c r="X3" s="1">
+        <v>170.36</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>115.67</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>141.87</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>199.87</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>155.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>469.49104510111226</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>414.14546224076435</v>
+      </c>
+      <c r="F4" s="1">
+        <v>436.37072387815266</v>
+      </c>
+      <c r="G4" s="1">
+        <v>564.58742726318803</v>
+      </c>
+      <c r="H4" s="1">
+        <v>550.97407461809644</v>
+      </c>
+      <c r="I4" s="1">
+        <v>337.76557081122473</v>
+      </c>
+      <c r="J4" s="1">
+        <v>523.3547369961226</v>
+      </c>
+      <c r="K4" s="1">
+        <v>456.50200859987041</v>
+      </c>
+      <c r="L4" s="1">
+        <v>531.85943192802426</v>
+      </c>
+      <c r="M4" s="1">
+        <v>378.85176259332763</v>
+      </c>
+      <c r="N4" s="1">
+        <v>613.93118492234316</v>
+      </c>
+      <c r="O4" s="1">
+        <v>441.18680560209077</v>
+      </c>
+      <c r="P4" s="1">
+        <v>430.85259582726837</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>522.63839207389435</v>
+      </c>
+      <c r="R4" s="1">
+        <v>383.2781842251951</v>
+      </c>
+      <c r="S4" s="1">
+        <v>453.18314563665115</v>
+      </c>
+      <c r="T4" s="1">
+        <v>410.7344046685829</v>
+      </c>
+      <c r="U4" s="1">
+        <v>677.68054469369565</v>
+      </c>
+      <c r="V4" s="1">
+        <v>466.64330292046827</v>
+      </c>
+      <c r="W4" s="1">
+        <v>573.91966336858854</v>
+      </c>
+      <c r="X4" s="1">
+        <v>502.34758159192302</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>196.61628771505144</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>552.24619722280966</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>289.79601240806528</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>542.88705170304547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>465.01373683084495</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.74999999999994</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.75000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.24999999999994</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25000000000006</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35000000000014</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>294</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>668</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.24999999999989</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>742.00000000000011</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.14999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>4.477308270267315</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>68.845462240764334</v>
+      </c>
+      <c r="F6" s="1">
+        <v>134.62072387815272</v>
+      </c>
+      <c r="G6" s="1">
+        <v>279.83742726318803</v>
+      </c>
+      <c r="H6" s="1">
+        <v>298.22407461809644</v>
+      </c>
+      <c r="I6" s="1">
+        <v>75.515570811224734</v>
+      </c>
+      <c r="J6" s="1">
+        <v>220.6047369961226</v>
+      </c>
+      <c r="K6" s="1">
+        <v>55.452008599870453</v>
+      </c>
+      <c r="L6" s="1">
+        <v>42.609431928024321</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-149.89823740667237</v>
+      </c>
+      <c r="N6" s="1">
+        <v>104.68118492234311</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-7.1631943979093649</v>
+      </c>
+      <c r="P6" s="1">
+        <v>31.652595827268385</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>228.63839207389435</v>
+      </c>
+      <c r="R6" s="1">
+        <v>68.278184225195105</v>
+      </c>
+      <c r="S6" s="1">
+        <v>77.03314563665117</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-67.065595331417114</v>
+      </c>
+      <c r="U6" s="1">
+        <v>92.180544693695651</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-201.35669707953173</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-182.33033663141134</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-247.15241840807698</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-545.38371228494861</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-117.50380277719034</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-265.57648759193467</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>113.73705170304555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>1903838.75</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>414.14546224076435</v>
-      </c>
-      <c r="F3" s="2">
-        <v>436.37072387815266</v>
-      </c>
-      <c r="G3" s="2">
-        <v>564.58742726318803</v>
-      </c>
-      <c r="H3" s="2">
-        <v>550.97407461809644</v>
-      </c>
-      <c r="I3" s="2">
-        <v>337.76557081122473</v>
-      </c>
-      <c r="J3" s="2">
-        <v>523.3547369961226</v>
-      </c>
-      <c r="K3" s="2">
-        <v>456.50200859987041</v>
-      </c>
-      <c r="L3" s="2">
-        <v>531.85943192802426</v>
-      </c>
-      <c r="M3" s="2">
-        <v>378.85176259332763</v>
-      </c>
-      <c r="N3" s="2">
-        <v>613.93118492234316</v>
-      </c>
-      <c r="O3" s="2">
-        <v>441.18680560209077</v>
-      </c>
-      <c r="P3" s="2">
-        <v>430.85259582726837</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>522.63839207389435</v>
-      </c>
-      <c r="R3" s="2">
-        <v>383.2781842251951</v>
-      </c>
-      <c r="S3" s="2">
-        <v>453.18314563665115</v>
-      </c>
-      <c r="T3" s="2">
-        <v>410.7344046685829</v>
-      </c>
-      <c r="U3" s="2">
-        <v>677.68054469369565</v>
-      </c>
-      <c r="V3" s="2">
-        <v>466.64330292046827</v>
-      </c>
-      <c r="W3" s="2">
-        <v>573.91966336858854</v>
-      </c>
-      <c r="X3" s="2">
-        <v>502.34758159192302</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>196.61628771505144</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>552.24619722280966</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>289.79601240806528</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>542.88705170304547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>465.01373683084495</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>63973.69</v>
+      </c>
+      <c r="F7" s="1">
+        <v>77023.006999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>84387.527999999991</v>
+      </c>
+      <c r="H7" s="1">
+        <v>118418.76700000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>67300.008000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>87438.125</v>
+      </c>
+      <c r="K7" s="1">
+        <v>84599.717000000004</v>
+      </c>
+      <c r="L7" s="1">
+        <v>61919.611000000004</v>
+      </c>
+      <c r="M7" s="1">
+        <v>104195.921</v>
+      </c>
+      <c r="N7" s="1">
+        <v>88418.839000000007</v>
+      </c>
+      <c r="O7" s="1">
+        <v>58555.506999999998</v>
+      </c>
+      <c r="P7" s="1">
+        <v>93439.897999999986</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>82947.837999999989</v>
+      </c>
+      <c r="R7" s="1">
+        <v>50136.133000000002</v>
+      </c>
+      <c r="S7" s="1">
+        <v>69530.896999999997</v>
+      </c>
+      <c r="T7" s="1">
+        <v>76323.365000000005</v>
+      </c>
+      <c r="U7" s="1">
+        <v>45886.360999999997</v>
+      </c>
+      <c r="V7" s="1">
+        <v>72154.255999999994</v>
+      </c>
+      <c r="W7" s="1">
+        <v>70431.337999999989</v>
+      </c>
+      <c r="X7" s="1">
+        <v>80022.250000000015</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>131027.22300000001</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>47373.63</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>100080.63399999999</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>88254.206999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>4484.9400000000005</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>181.66000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>151.82999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>170.14</v>
+      </c>
+      <c r="H8" s="1">
+        <v>227.4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>145.58000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>181.35000000000002</v>
+      </c>
+      <c r="L8" s="1">
+        <v>233.01999999999998</v>
+      </c>
+      <c r="M8" s="1">
+        <v>213.55</v>
+      </c>
+      <c r="N8" s="1">
+        <v>199.73000000000002</v>
+      </c>
+      <c r="O8" s="1">
+        <v>187.51</v>
+      </c>
+      <c r="P8" s="1">
+        <v>209.93</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>182.58999999999997</v>
+      </c>
+      <c r="R8" s="1">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="S8" s="1">
+        <v>222.39</v>
+      </c>
+      <c r="T8" s="1">
+        <v>187.09</v>
+      </c>
+      <c r="U8" s="1">
+        <v>97.47</v>
+      </c>
+      <c r="V8" s="1">
+        <v>185.01</v>
+      </c>
+      <c r="W8" s="1">
+        <v>167.57</v>
+      </c>
+      <c r="X8" s="1">
+        <v>187.27</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>220.88</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>186.56</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>256.11</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>203.23000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>424.49592413722365</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.74999999999994</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75000000000003</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.24999999999994</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25000000000006</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35000000000014</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.24999999999989</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742.00000000000011</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.14999999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>3949.57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>165.39</v>
-      </c>
-      <c r="F5" s="2">
-        <v>152.65</v>
-      </c>
-      <c r="G5" s="2">
-        <v>209.66000000000003</v>
-      </c>
-      <c r="H5" s="2">
-        <v>136.16</v>
-      </c>
-      <c r="I5" s="2">
-        <v>182.81</v>
-      </c>
-      <c r="J5" s="2">
-        <v>136.69</v>
-      </c>
-      <c r="K5" s="2">
-        <v>169.77</v>
-      </c>
-      <c r="L5" s="2">
-        <v>134.49</v>
-      </c>
-      <c r="M5" s="2">
-        <v>211.62</v>
-      </c>
-      <c r="N5" s="2">
-        <v>171.91</v>
-      </c>
-      <c r="O5" s="2">
-        <v>149.22999999999999</v>
-      </c>
-      <c r="P5" s="2">
-        <v>123.66</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>193.79000000000002</v>
-      </c>
-      <c r="R5" s="2">
-        <v>143.52000000000001</v>
-      </c>
-      <c r="S5" s="2">
-        <v>208.67000000000002</v>
-      </c>
-      <c r="T5" s="2">
-        <v>114.81</v>
-      </c>
-      <c r="U5" s="2">
-        <v>145.76999999999998</v>
-      </c>
-      <c r="V5" s="2">
-        <v>240.02999999999997</v>
-      </c>
-      <c r="W5" s="2">
-        <v>175.86</v>
-      </c>
-      <c r="X5" s="2">
-        <v>170.36</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>115.67</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>141.87</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>199.87</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>155.31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>4.477308270267315</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>352.16167565782229</v>
+      </c>
+      <c r="F9" s="1">
+        <v>507.29768161759864</v>
+      </c>
+      <c r="G9" s="1">
+        <v>495.98876219583872</v>
+      </c>
+      <c r="H9" s="1">
+        <v>520.75095426561131</v>
+      </c>
+      <c r="I9" s="1">
+        <v>462.28883088336306</v>
+      </c>
+      <c r="J9" s="1">
+        <v>572.35141061726779</v>
+      </c>
+      <c r="K9" s="1">
+        <v>466.49968017645432</v>
+      </c>
+      <c r="L9" s="1">
+        <v>265.72659428375249</v>
+      </c>
+      <c r="M9" s="1">
+        <v>487.92283306017322</v>
+      </c>
+      <c r="N9" s="1">
+        <v>442.69182896910831</v>
+      </c>
+      <c r="O9" s="1">
+        <v>312.27938243293693</v>
+      </c>
+      <c r="P9" s="1">
+        <v>445.1002619920925</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>454.28467057341584</v>
+      </c>
+      <c r="R9" s="1">
+        <v>373.31446760982874</v>
+      </c>
+      <c r="S9" s="1">
+        <v>312.65298349745945</v>
+      </c>
+      <c r="T9" s="1">
+        <v>407.94999732748948</v>
+      </c>
+      <c r="U9" s="1">
+        <v>470.77419718887859</v>
+      </c>
+      <c r="V9" s="1">
+        <v>390.00192422031239</v>
+      </c>
+      <c r="W9" s="1">
+        <v>420.30994808139877</v>
+      </c>
+      <c r="X9" s="1">
+        <v>427.30949965290762</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>593.20546450561403</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>253.93240780445967</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>390.77206669009405</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>434.25777198248284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>442.94212143863683</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>68.845462240764334</v>
-      </c>
-      <c r="F6" s="2">
-        <v>134.62072387815272</v>
-      </c>
-      <c r="G6" s="2">
-        <v>279.83742726318803</v>
-      </c>
-      <c r="H6" s="2">
-        <v>298.22407461809644</v>
-      </c>
-      <c r="I6" s="2">
-        <v>75.515570811224734</v>
-      </c>
-      <c r="J6" s="2">
-        <v>220.6047369961226</v>
-      </c>
-      <c r="K6" s="2">
-        <v>55.452008599870453</v>
-      </c>
-      <c r="L6" s="2">
-        <v>42.609431928024321</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-149.89823740667237</v>
-      </c>
-      <c r="N6" s="2">
-        <v>104.68118492234311</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-7.1631943979093649</v>
-      </c>
-      <c r="P6" s="2">
-        <v>31.652595827268385</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>228.63839207389435</v>
-      </c>
-      <c r="R6" s="2">
-        <v>68.278184225195105</v>
-      </c>
-      <c r="S6" s="2">
-        <v>77.03314563665117</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-67.065595331417114</v>
-      </c>
-      <c r="U6" s="2">
-        <v>92.180544693695651</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-201.35669707953173</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-182.33033663141134</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-247.15241840807698</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-545.38371228494861</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-117.50380277719034</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-265.57648759193467</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>113.73705170304555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>1903838.75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>63973.69</v>
-      </c>
-      <c r="F7" s="2">
-        <v>77023.006999999998</v>
-      </c>
-      <c r="G7" s="2">
-        <v>84387.527999999991</v>
-      </c>
-      <c r="H7" s="2">
-        <v>118418.76700000001</v>
-      </c>
-      <c r="I7" s="2">
-        <v>67300.008000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <v>87438.125</v>
-      </c>
-      <c r="K7" s="2">
-        <v>84599.717000000004</v>
-      </c>
-      <c r="L7" s="2">
-        <v>61919.611000000004</v>
-      </c>
-      <c r="M7" s="2">
-        <v>104195.921</v>
-      </c>
-      <c r="N7" s="2">
-        <v>88418.839000000007</v>
-      </c>
-      <c r="O7" s="2">
-        <v>58555.506999999998</v>
-      </c>
-      <c r="P7" s="2">
-        <v>93439.897999999986</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>82947.837999999989</v>
-      </c>
-      <c r="R7" s="2">
-        <v>50136.133000000002</v>
-      </c>
-      <c r="S7" s="2">
-        <v>69530.896999999997</v>
-      </c>
-      <c r="T7" s="2">
-        <v>76323.365000000005</v>
-      </c>
-      <c r="U7" s="2">
-        <v>45886.360999999997</v>
-      </c>
-      <c r="V7" s="2">
-        <v>72154.255999999994</v>
-      </c>
-      <c r="W7" s="2">
-        <v>70431.337999999989</v>
-      </c>
-      <c r="X7" s="2">
-        <v>80022.250000000015</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>131027.22300000001</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>47373.63</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>100080.63399999999</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>88254.206999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>424.49592413722365</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>352.16167565782229</v>
-      </c>
-      <c r="F8" s="2">
-        <v>507.29768161759864</v>
-      </c>
-      <c r="G8" s="2">
-        <v>495.98876219583872</v>
-      </c>
-      <c r="H8" s="2">
-        <v>520.75095426561131</v>
-      </c>
-      <c r="I8" s="2">
-        <v>462.28883088336306</v>
-      </c>
-      <c r="J8" s="2">
-        <v>572.35141061726779</v>
-      </c>
-      <c r="K8" s="2">
-        <v>466.49968017645432</v>
-      </c>
-      <c r="L8" s="2">
-        <v>265.72659428375249</v>
-      </c>
-      <c r="M8" s="2">
-        <v>487.92283306017322</v>
-      </c>
-      <c r="N8" s="2">
-        <v>442.69182896910831</v>
-      </c>
-      <c r="O8" s="2">
-        <v>312.27938243293693</v>
-      </c>
-      <c r="P8" s="2">
-        <v>445.1002619920925</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>454.28467057341584</v>
-      </c>
-      <c r="R8" s="2">
-        <v>373.31446760982874</v>
-      </c>
-      <c r="S8" s="2">
-        <v>312.65298349745945</v>
-      </c>
-      <c r="T8" s="2">
-        <v>407.94999732748948</v>
-      </c>
-      <c r="U8" s="2">
-        <v>470.77419718887859</v>
-      </c>
-      <c r="V8" s="2">
-        <v>390.00192422031239</v>
-      </c>
-      <c r="W8" s="2">
-        <v>420.30994808139877</v>
-      </c>
-      <c r="X8" s="2">
-        <v>427.30949965290762</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>593.20546450561403</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>253.93240780445967</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>390.77206669009405</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>434.25777198248284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>442.94212143863683</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>423.05216200594515</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>624.79590314825805</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>461.18711708005179</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>328.15068183817061</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>442.9019836172551</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>434.72247578058523</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>451.74646443341595</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>577.29675017165914</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>428.54629454460309</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>476.07498072397732</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>378.12087768652339</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>367.3203360644024</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>595.14432074593356</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>509.05355510052118</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>526.87904267278202</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>445.13713720669193</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>334.63076510721248</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>345.72865480244315</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>308.53462344094999</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>340.00137742297215</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>340.11372883466134</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>511.80793551672383</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>517.10677960641908</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>429.71974314815731</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>4484.9400000000005</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>181.66000000000003</v>
-      </c>
-      <c r="F10">
-        <v>151.82999999999998</v>
-      </c>
-      <c r="G10">
-        <v>170.14</v>
-      </c>
-      <c r="H10">
-        <v>227.4</v>
-      </c>
-      <c r="I10">
-        <v>145.58000000000001</v>
-      </c>
-      <c r="J10">
-        <v>152.77000000000001</v>
-      </c>
-      <c r="K10">
-        <v>181.35000000000002</v>
-      </c>
-      <c r="L10">
-        <v>233.01999999999998</v>
-      </c>
-      <c r="M10">
-        <v>213.55</v>
-      </c>
-      <c r="N10">
-        <v>199.73000000000002</v>
-      </c>
-      <c r="O10">
-        <v>187.51</v>
-      </c>
-      <c r="P10">
-        <v>209.93</v>
-      </c>
-      <c r="Q10">
-        <v>182.58999999999997</v>
-      </c>
-      <c r="R10">
-        <v>134.30000000000001</v>
-      </c>
-      <c r="S10">
-        <v>222.39</v>
-      </c>
-      <c r="T10">
-        <v>187.09</v>
-      </c>
-      <c r="U10">
-        <v>97.47</v>
-      </c>
-      <c r="V10">
-        <v>185.01</v>
-      </c>
-      <c r="W10">
-        <v>167.57</v>
-      </c>
-      <c r="X10">
-        <v>187.27</v>
-      </c>
-      <c r="Y10">
-        <v>220.88</v>
-      </c>
-      <c r="Z10">
-        <v>186.56</v>
-      </c>
-      <c r="AA10">
-        <v>256.11</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>203.23000000000002</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>-18.446197301413179</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>-70.890486348122863</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>-126.33471291632503</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>4.5380288343255302</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1854287.747</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>68495.518000000011</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>66611.991000000009</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>118371.40000000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>75020.63</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>61746.923999999999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>71537.358999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>77500.346000000005</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>71529.774999999994</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>80172.61</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>105540.91</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>65838.307000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>53279.232000000004</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>101282.094</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>55008.085000000006</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>94565.726999999999</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>47156.417000000001</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>98785.493000000002</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>112008.39199999999</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>100929.51199999999</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>85579.934000000008</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>22742.606</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>78347.168000000005</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>57921.52900000001</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>84315.788</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>1836604.3045750004</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>57109.167000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>46062.137499999997</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>59700.685000000005</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>34414.44</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>47941.922500000001</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>41382.897499999999</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>68086.258499999996</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>65799.232499999998</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>111894.07500000001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>87545.16750000001</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>66907.270500000013</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>49365.072</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>56974.26</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>45208.800000000003</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>78491.220499999996</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>54856.218000000001</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>85348.334999999992</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>160340.03999999998</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>132994.125</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>127684.82</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>85827.140000000014</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>95017.432499999995</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>111002.30157499999</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>66651.286499999987</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>11386.35100000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>20549.853500000012</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>58670.715000000004</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>40606.19</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>13805.001499999998</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>30154.461499999998</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>9414.0875000000087</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>5730.5424999999959</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-31721.465000000011</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>17995.742499999993</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>-1068.9635000000126</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>3914.1600000000035</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>44307.833999999995</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>9799.2850000000035</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>16074.506500000003</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-7699.8009999999995</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>13437.15800000001</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-48331.647999999986</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-32064.613000000012</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-42104.885999999999</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-63084.534000000014</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-16670.26449999999</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-53080.772574999981</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>17664.501500000013</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>1903838.75</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>63973.69</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>77023.006999999998</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>84387.527999999991</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>118418.76700000001</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>67300.008000000002</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>87438.125</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>84599.717000000004</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>61919.611000000004</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>104195.921</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>88418.839000000007</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>58555.506999999998</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>93439.897999999986</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>82947.837999999989</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>50136.133000000002</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>69530.896999999997</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>76323.365000000005</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>45886.360999999997</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>72154.255999999994</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>70431.337999999989</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>80022.250000000015</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>131027.22300000001</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>47373.63</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>100080.63399999999</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>88254.206999999995</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>1986568.838125</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>76851.655750000005</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>132436.21732500001</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>87331.943400000018</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-12877.965750000003</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>-32355.583325000014</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>922.26359999997658</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>3949.57</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>165.39</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>152.65</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>209.66000000000003</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>136.16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>182.81</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>136.69</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>169.77</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>134.49</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>211.62</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>171.91</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>149.22999999999999</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>123.66</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>193.79000000000002</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>143.52000000000001</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>208.67000000000002</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>114.81</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>145.76999999999998</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>240.02999999999997</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>175.86</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>170.36</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>115.67</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>141.87</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>199.87</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>155.31</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>469.49104510111226</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>414.14546224076435</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>436.37072387815266</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>564.58742726318803</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>550.97407461809644</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>337.76557081122473</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>523.3547369961226</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>456.50200859987041</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>531.85943192802426</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>378.85176259332763</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>613.93118492234316</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>441.18680560209077</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>430.85259582726837</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>522.63839207389435</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>383.2781842251951</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>453.18314563665115</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>410.7344046685829</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>677.68054469369565</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>466.64330292046827</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>573.91966336858854</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>502.34758159192302</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>196.61628771505144</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>552.24619722280966</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>289.79601240806528</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>542.88705170304547</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>465.01373683084495</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.74999999999994</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.75000000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.24999999999994</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25000000000006</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35000000000014</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.24999999999989</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>742.00000000000011</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.14999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>4484.9400000000005</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>181.66000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>151.82999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>170.14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>227.4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>145.58000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>152.77000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>181.35000000000002</v>
+      </c>
+      <c r="L5" s="1">
+        <v>233.01999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>213.55</v>
+      </c>
+      <c r="N5" s="1">
+        <v>199.73000000000002</v>
+      </c>
+      <c r="O5" s="1">
+        <v>187.51</v>
+      </c>
+      <c r="P5" s="1">
+        <v>209.93</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>182.58999999999997</v>
+      </c>
+      <c r="R5" s="1">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="S5" s="1">
+        <v>222.39</v>
+      </c>
+      <c r="T5" s="1">
+        <v>187.09</v>
+      </c>
+      <c r="U5" s="1">
+        <v>97.47</v>
+      </c>
+      <c r="V5" s="1">
+        <v>185.01</v>
+      </c>
+      <c r="W5" s="1">
+        <v>167.57</v>
+      </c>
+      <c r="X5" s="1">
+        <v>187.27</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>220.88</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>186.56</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>256.11</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>203.23000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>424.49592413722365</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.74999999999994</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75000000000003</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.24999999999994</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25000000000006</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35000000000014</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.24999999999989</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742.00000000000011</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.14999999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>352.16167565782229</v>
+      </c>
+      <c r="F6" s="1">
+        <v>507.29768161759864</v>
+      </c>
+      <c r="G6" s="1">
+        <v>495.98876219583872</v>
+      </c>
+      <c r="H6" s="1">
+        <v>520.75095426561131</v>
+      </c>
+      <c r="I6" s="1">
+        <v>462.28883088336306</v>
+      </c>
+      <c r="J6" s="1">
+        <v>572.35141061726779</v>
+      </c>
+      <c r="K6" s="1">
+        <v>466.49968017645432</v>
+      </c>
+      <c r="L6" s="1">
+        <v>265.72659428375249</v>
+      </c>
+      <c r="M6" s="1">
+        <v>487.92283306017322</v>
+      </c>
+      <c r="N6" s="1">
+        <v>442.69182896910831</v>
+      </c>
+      <c r="O6" s="1">
+        <v>312.27938243293693</v>
+      </c>
+      <c r="P6" s="1">
+        <v>445.1002619920925</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>454.28467057341584</v>
+      </c>
+      <c r="R6" s="1">
+        <v>373.31446760982874</v>
+      </c>
+      <c r="S6" s="1">
+        <v>312.65298349745945</v>
+      </c>
+      <c r="T6" s="1">
+        <v>407.94999732748948</v>
+      </c>
+      <c r="U6" s="1">
+        <v>470.77419718887859</v>
+      </c>
+      <c r="V6" s="1">
+        <v>390.00192422031239</v>
+      </c>
+      <c r="W6" s="1">
+        <v>420.30994808139877</v>
+      </c>
+      <c r="X6" s="1">
+        <v>427.30949965290762</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>593.20546450561403</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>253.93240780445967</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>390.77206669009405</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>434.25777198248284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4484.9400000000005</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>181.66000000000003</v>
-      </c>
-      <c r="F5" s="2">
-        <v>151.82999999999998</v>
-      </c>
-      <c r="G5" s="2">
-        <v>170.14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>227.4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>145.58000000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>152.77000000000001</v>
-      </c>
-      <c r="K5" s="2">
-        <v>181.35000000000002</v>
-      </c>
-      <c r="L5" s="2">
-        <v>233.01999999999998</v>
-      </c>
-      <c r="M5" s="2">
-        <v>213.55</v>
-      </c>
-      <c r="N5" s="2">
-        <v>199.73000000000002</v>
-      </c>
-      <c r="O5" s="2">
-        <v>187.51</v>
-      </c>
-      <c r="P5" s="2">
-        <v>209.93</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>182.58999999999997</v>
-      </c>
-      <c r="R5" s="2">
-        <v>134.30000000000001</v>
-      </c>
-      <c r="S5" s="2">
-        <v>222.39</v>
-      </c>
-      <c r="T5" s="2">
-        <v>187.09</v>
-      </c>
-      <c r="U5" s="2">
-        <v>97.47</v>
-      </c>
-      <c r="V5" s="2">
-        <v>185.01</v>
-      </c>
-      <c r="W5" s="2">
-        <v>167.57</v>
-      </c>
-      <c r="X5" s="2">
-        <v>187.27</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>220.88</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>186.56</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>256.11</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>203.23000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>424.49592413722365</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>352.16167565782229</v>
-      </c>
-      <c r="F6" s="2">
-        <v>507.29768161759864</v>
-      </c>
-      <c r="G6" s="2">
-        <v>495.98876219583872</v>
-      </c>
-      <c r="H6" s="2">
-        <v>520.75095426561131</v>
-      </c>
-      <c r="I6" s="2">
-        <v>462.28883088336306</v>
-      </c>
-      <c r="J6" s="2">
-        <v>572.35141061726779</v>
-      </c>
-      <c r="K6" s="2">
-        <v>466.49968017645432</v>
-      </c>
-      <c r="L6" s="2">
-        <v>265.72659428375249</v>
-      </c>
-      <c r="M6" s="2">
-        <v>487.92283306017322</v>
-      </c>
-      <c r="N6" s="2">
-        <v>442.69182896910831</v>
-      </c>
-      <c r="O6" s="2">
-        <v>312.27938243293693</v>
-      </c>
-      <c r="P6" s="2">
-        <v>445.1002619920925</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>454.28467057341584</v>
-      </c>
-      <c r="R6" s="2">
-        <v>373.31446760982874</v>
-      </c>
-      <c r="S6" s="2">
-        <v>312.65298349745945</v>
-      </c>
-      <c r="T6" s="2">
-        <v>407.94999732748948</v>
-      </c>
-      <c r="U6" s="2">
-        <v>470.77419718887859</v>
-      </c>
-      <c r="V6" s="2">
-        <v>390.00192422031239</v>
-      </c>
-      <c r="W6" s="2">
-        <v>420.30994808139877</v>
-      </c>
-      <c r="X6" s="2">
-        <v>427.30949965290762</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>593.20546450561403</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>253.93240780445967</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>390.77206669009405</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>434.25777198248284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>442.94212143863683</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>423.05216200594515</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>624.79590314825805</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>461.18711708005179</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>328.15068183817061</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>442.9019836172551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>434.72247578058523</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>451.74646443341595</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>577.29675017165914</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>428.54629454460309</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>476.07498072397732</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>378.12087768652339</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>367.3203360644024</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>595.14432074593356</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>509.05355510052118</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>526.87904267278202</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>445.13713720669193</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>334.63076510721248</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>345.72865480244315</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>308.53462344094999</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>340.00137742297215</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>340.11372883466134</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>511.80793551672383</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>517.10677960641908</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>429.71974314815731</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>1022.6100000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1769.5900000000015</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2910.9399999999987</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2731.3699999999976</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>12.124118650638867</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>20.980353334100048</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>34.512259751900217</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>32.383268263360861</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/市场化,d-3日24时段滚动撮合合同分析结果.xlsx
+++ b/江西/导出模板/市场化,d-3日24时段滚动撮合合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783A9685-AAAC-4F87-B321-9F0D263D3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A1B88D-3736-4539-AFFE-64F8AFD0A769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>4.5380288343255302</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3758126.497</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>132469.20800000001</v>
+      </c>
+      <c r="F12">
+        <v>143634.99800000002</v>
+      </c>
+      <c r="G12">
+        <v>202758.92799999999</v>
+      </c>
+      <c r="H12">
+        <v>193439.397</v>
+      </c>
+      <c r="I12">
+        <v>129046.932</v>
+      </c>
+      <c r="J12">
+        <v>158975.484</v>
+      </c>
+      <c r="K12">
+        <v>162100.06300000002</v>
+      </c>
+      <c r="L12">
+        <v>133449.386</v>
+      </c>
+      <c r="M12">
+        <v>184368.53100000002</v>
+      </c>
+      <c r="N12">
+        <v>193959.74900000001</v>
+      </c>
+      <c r="O12">
+        <v>124393.814</v>
+      </c>
+      <c r="P12">
+        <v>146719.13</v>
+      </c>
+      <c r="Q12">
+        <v>184229.932</v>
+      </c>
+      <c r="R12">
+        <v>105144.21800000001</v>
+      </c>
+      <c r="S12">
+        <v>164096.62400000001</v>
+      </c>
+      <c r="T12">
+        <v>123479.78200000001</v>
+      </c>
+      <c r="U12">
+        <v>144671.85400000002</v>
+      </c>
+      <c r="V12">
+        <v>184162.64799999999</v>
+      </c>
+      <c r="W12">
+        <v>171360.84999999998</v>
+      </c>
+      <c r="X12">
+        <v>165602.18400000001</v>
+      </c>
+      <c r="Y12">
+        <v>153769.82900000003</v>
+      </c>
+      <c r="Z12">
+        <v>125720.798</v>
+      </c>
+      <c r="AA12">
+        <v>158002.163</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>172569.995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8434.510000000002</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>347.05</v>
+      </c>
+      <c r="F13">
+        <v>304.48</v>
+      </c>
+      <c r="G13">
+        <v>379.8</v>
+      </c>
+      <c r="H13">
+        <v>363.56</v>
+      </c>
+      <c r="I13">
+        <v>328.39</v>
+      </c>
+      <c r="J13">
+        <v>289.46000000000004</v>
+      </c>
+      <c r="K13">
+        <v>351.12</v>
+      </c>
+      <c r="L13">
+        <v>367.51</v>
+      </c>
+      <c r="M13">
+        <v>425.17</v>
+      </c>
+      <c r="N13">
+        <v>371.64</v>
+      </c>
+      <c r="O13">
+        <v>336.74</v>
+      </c>
+      <c r="P13">
+        <v>333.59000000000003</v>
+      </c>
+      <c r="Q13">
+        <v>376.38</v>
+      </c>
+      <c r="R13">
+        <v>277.82</v>
+      </c>
+      <c r="S13">
+        <v>431.06</v>
+      </c>
+      <c r="T13">
+        <v>301.89999999999998</v>
+      </c>
+      <c r="U13">
+        <v>243.23999999999995</v>
+      </c>
+      <c r="V13">
+        <v>425.03999999999996</v>
+      </c>
+      <c r="W13">
+        <v>343.43</v>
+      </c>
+      <c r="X13">
+        <v>357.63</v>
+      </c>
+      <c r="Y13">
+        <v>336.54999999999995</v>
+      </c>
+      <c r="Z13">
+        <v>328.42999999999995</v>
+      </c>
+      <c r="AA13">
+        <v>455.98</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>358.53999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>445.56548003381334</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>381.70064255870915</v>
+      </c>
+      <c r="F14">
+        <v>471.73869548081979</v>
+      </c>
+      <c r="G14">
+        <v>533.85710373880988</v>
+      </c>
+      <c r="H14">
+        <v>532.07007646605791</v>
+      </c>
+      <c r="I14">
+        <v>392.96851913882887</v>
+      </c>
+      <c r="J14">
+        <v>549.21399847992802</v>
+      </c>
+      <c r="K14">
+        <v>461.66570688083851</v>
+      </c>
+      <c r="L14">
+        <v>363.11770019863405</v>
+      </c>
+      <c r="M14">
+        <v>433.63485429357672</v>
+      </c>
+      <c r="N14">
+        <v>521.90224141642454</v>
+      </c>
+      <c r="O14">
+        <v>369.40611154006058</v>
+      </c>
+      <c r="P14">
+        <v>439.81872957822475</v>
+      </c>
+      <c r="Q14">
+        <v>489.47853764812157</v>
+      </c>
+      <c r="R14">
+        <v>378.4616586278886</v>
+      </c>
+      <c r="S14">
+        <v>380.68163132742546</v>
+      </c>
+      <c r="T14">
+        <v>409.0088837363366</v>
+      </c>
+      <c r="U14">
+        <v>594.76999671106751</v>
+      </c>
+      <c r="V14">
+        <v>433.28309806135894</v>
+      </c>
+      <c r="W14">
+        <v>498.9687854875811</v>
+      </c>
+      <c r="X14">
+        <v>463.05450884992871</v>
+      </c>
+      <c r="Y14">
+        <v>456.9003981577776</v>
+      </c>
+      <c r="Z14">
+        <v>382.79328319581043</v>
+      </c>
+      <c r="AA14">
+        <v>346.51116934953285</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>481.31308919506893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>453.27744500866089</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>385.99862483791964</v>
+      </c>
+      <c r="F15">
+        <v>462.83795150748807</v>
+      </c>
+      <c r="G15">
+        <v>363.78899710373884</v>
+      </c>
+      <c r="H15">
+        <v>299.91172034877326</v>
+      </c>
+      <c r="I15">
+        <v>342.33561702548809</v>
+      </c>
+      <c r="J15">
+        <v>372.40188670282589</v>
+      </c>
+      <c r="K15">
+        <v>427.23422142002732</v>
+      </c>
+      <c r="L15">
+        <v>545.07611010584742</v>
+      </c>
+      <c r="M15">
+        <v>478.4207168897147</v>
+      </c>
+      <c r="N15">
+        <v>491.42079270261547</v>
+      </c>
+      <c r="O15">
+        <v>409.24367843143079</v>
+      </c>
+      <c r="P15">
+        <v>379.13795422524652</v>
+      </c>
+      <c r="Q15">
+        <v>440.09156045751638</v>
+      </c>
+      <c r="R15">
+        <v>408.80675419336262</v>
+      </c>
+      <c r="S15">
+        <v>453.91326219087836</v>
+      </c>
+      <c r="T15">
+        <v>457.55854587611793</v>
+      </c>
+      <c r="U15">
+        <v>484.97284852409155</v>
+      </c>
+      <c r="V15">
+        <v>527.72279885422552</v>
+      </c>
+      <c r="W15">
+        <v>537.79597545351305</v>
+      </c>
+      <c r="X15">
+        <v>535.06942356625564</v>
+      </c>
+      <c r="Y15">
+        <v>478.23937134155415</v>
+      </c>
+      <c r="Z15">
+        <v>580.03325198672485</v>
+      </c>
+      <c r="AA15">
+        <v>533.87981687793331</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>429.47294555698113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-7.7119649748475467</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>-4.2979822792104869</v>
+      </c>
+      <c r="F16">
+        <v>8.9007439733317142</v>
+      </c>
+      <c r="G16">
+        <v>170.06810663507105</v>
+      </c>
+      <c r="H16">
+        <v>232.15835611728465</v>
+      </c>
+      <c r="I16">
+        <v>50.632902113340776</v>
+      </c>
+      <c r="J16">
+        <v>176.81211177710213</v>
+      </c>
+      <c r="K16">
+        <v>34.431485460811189</v>
+      </c>
+      <c r="L16">
+        <v>-181.95840990721337</v>
+      </c>
+      <c r="M16">
+        <v>-44.785862596137974</v>
+      </c>
+      <c r="N16">
+        <v>30.481448713809073</v>
+      </c>
+      <c r="O16">
+        <v>-39.837566891370216</v>
+      </c>
+      <c r="P16">
+        <v>60.68077535297823</v>
+      </c>
+      <c r="Q16">
+        <v>49.386977190605194</v>
+      </c>
+      <c r="R16">
+        <v>-30.345095565474026</v>
+      </c>
+      <c r="S16">
+        <v>-73.231630863452892</v>
+      </c>
+      <c r="T16">
+        <v>-48.549662139781333</v>
+      </c>
+      <c r="U16">
+        <v>109.79714818697596</v>
+      </c>
+      <c r="V16">
+        <v>-94.439700792866574</v>
+      </c>
+      <c r="W16">
+        <v>-38.82718996593195</v>
+      </c>
+      <c r="X16">
+        <v>-72.014914716326928</v>
+      </c>
+      <c r="Y16">
+        <v>-21.338973183776545</v>
+      </c>
+      <c r="Z16">
+        <v>-197.23996879091442</v>
+      </c>
+      <c r="AA16">
+        <v>-187.36864752840046</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>51.840143638087795</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3758126.497</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>132469.20800000001</v>
+      </c>
+      <c r="F8">
+        <v>143634.99800000002</v>
+      </c>
+      <c r="G8">
+        <v>202758.92799999999</v>
+      </c>
+      <c r="H8">
+        <v>193439.397</v>
+      </c>
+      <c r="I8">
+        <v>129046.932</v>
+      </c>
+      <c r="J8">
+        <v>158975.484</v>
+      </c>
+      <c r="K8">
+        <v>162100.06300000002</v>
+      </c>
+      <c r="L8">
+        <v>133449.386</v>
+      </c>
+      <c r="M8">
+        <v>184368.53100000002</v>
+      </c>
+      <c r="N8">
+        <v>193959.74900000001</v>
+      </c>
+      <c r="O8">
+        <v>124393.814</v>
+      </c>
+      <c r="P8">
+        <v>146719.13</v>
+      </c>
+      <c r="Q8">
+        <v>184229.932</v>
+      </c>
+      <c r="R8">
+        <v>105144.21800000001</v>
+      </c>
+      <c r="S8">
+        <v>164096.62400000001</v>
+      </c>
+      <c r="T8">
+        <v>123479.78200000001</v>
+      </c>
+      <c r="U8">
+        <v>144671.85400000002</v>
+      </c>
+      <c r="V8">
+        <v>184162.64799999999</v>
+      </c>
+      <c r="W8">
+        <v>171360.84999999998</v>
+      </c>
+      <c r="X8">
+        <v>165602.18400000001</v>
+      </c>
+      <c r="Y8">
+        <v>153769.82900000003</v>
+      </c>
+      <c r="Z8">
+        <v>125720.798</v>
+      </c>
+      <c r="AA8">
+        <v>158002.163</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>172569.995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3823173.1427000011</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>133960.82275000002</v>
+      </c>
+      <c r="F9">
+        <v>140924.89947499998</v>
+      </c>
+      <c r="G9">
+        <v>138167.06110000002</v>
+      </c>
+      <c r="H9">
+        <v>109035.90505</v>
+      </c>
+      <c r="I9">
+        <v>112419.59327500002</v>
+      </c>
+      <c r="J9">
+        <v>107795.450125</v>
+      </c>
+      <c r="K9">
+        <v>150010.47982499999</v>
+      </c>
+      <c r="L9">
+        <v>200320.921225</v>
+      </c>
+      <c r="M9">
+        <v>203410.13620000001</v>
+      </c>
+      <c r="N9">
+        <v>182631.62340000001</v>
+      </c>
+      <c r="O9">
+        <v>137808.71627500001</v>
+      </c>
+      <c r="P9">
+        <v>126476.63015</v>
+      </c>
+      <c r="Q9">
+        <v>165641.661525</v>
+      </c>
+      <c r="R9">
+        <v>113574.69245</v>
+      </c>
+      <c r="S9">
+        <v>195663.85080000001</v>
+      </c>
+      <c r="T9">
+        <v>138136.92499999999</v>
+      </c>
+      <c r="U9">
+        <v>117964.795675</v>
+      </c>
+      <c r="V9">
+        <v>224303.29842499999</v>
+      </c>
+      <c r="W9">
+        <v>184695.27184999999</v>
+      </c>
+      <c r="X9">
+        <v>191356.87794999999</v>
+      </c>
+      <c r="Y9">
+        <v>160951.46042500003</v>
+      </c>
+      <c r="Z9">
+        <v>190500.32095000002</v>
+      </c>
+      <c r="AA9">
+        <v>243438.51890000002</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>153983.22990000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>-1491.6147500000079</v>
+      </c>
+      <c r="F10">
+        <v>2710.0985250000376</v>
+      </c>
+      <c r="G10">
+        <v>64591.866899999965</v>
+      </c>
+      <c r="H10">
+        <v>84403.491949999996</v>
+      </c>
+      <c r="I10">
+        <v>16627.33872499998</v>
+      </c>
+      <c r="J10">
+        <v>51180.033874999994</v>
+      </c>
+      <c r="K10">
+        <v>12089.583175000036</v>
+      </c>
+      <c r="L10">
+        <v>-66871.535225</v>
+      </c>
+      <c r="M10">
+        <v>-19041.605199999991</v>
+      </c>
+      <c r="N10">
+        <v>11328.125599999999</v>
+      </c>
+      <c r="O10">
+        <v>-13414.902275000015</v>
+      </c>
+      <c r="P10">
+        <v>20242.499850000007</v>
+      </c>
+      <c r="Q10">
+        <v>18588.270474999998</v>
+      </c>
+      <c r="R10">
+        <v>-8430.4744499999942</v>
+      </c>
+      <c r="S10">
+        <v>-31567.226800000004</v>
+      </c>
+      <c r="T10">
+        <v>-14657.142999999982</v>
+      </c>
+      <c r="U10">
+        <v>26707.05832500002</v>
+      </c>
+      <c r="V10">
+        <v>-40140.650425</v>
+      </c>
+      <c r="W10">
+        <v>-13334.421850000013</v>
+      </c>
+      <c r="X10">
+        <v>-25754.693949999986</v>
+      </c>
+      <c r="Y10">
+        <v>-7181.6314249999996</v>
+      </c>
+      <c r="Z10">
+        <v>-64779.522950000028</v>
+      </c>
+      <c r="AA10">
+        <v>-85436.355900000024</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>18586.76509999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>429.71974314815731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8434.510000000002</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>347.05</v>
+      </c>
+      <c r="F8">
+        <v>304.48</v>
+      </c>
+      <c r="G8">
+        <v>379.8</v>
+      </c>
+      <c r="H8">
+        <v>363.56</v>
+      </c>
+      <c r="I8">
+        <v>328.39</v>
+      </c>
+      <c r="J8">
+        <v>289.46000000000004</v>
+      </c>
+      <c r="K8">
+        <v>351.12</v>
+      </c>
+      <c r="L8">
+        <v>367.51</v>
+      </c>
+      <c r="M8">
+        <v>425.17</v>
+      </c>
+      <c r="N8">
+        <v>371.64</v>
+      </c>
+      <c r="O8">
+        <v>336.74</v>
+      </c>
+      <c r="P8">
+        <v>333.59000000000003</v>
+      </c>
+      <c r="Q8">
+        <v>376.38</v>
+      </c>
+      <c r="R8">
+        <v>277.82</v>
+      </c>
+      <c r="S8">
+        <v>431.06</v>
+      </c>
+      <c r="T8">
+        <v>301.89999999999998</v>
+      </c>
+      <c r="U8">
+        <v>243.23999999999995</v>
+      </c>
+      <c r="V8">
+        <v>425.03999999999996</v>
+      </c>
+      <c r="W8">
+        <v>343.43</v>
+      </c>
+      <c r="X8">
+        <v>357.63</v>
+      </c>
+      <c r="Y8">
+        <v>336.54999999999995</v>
+      </c>
+      <c r="Z8">
+        <v>328.42999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>455.98</v>
+      </c>
+      <c r="AB8">
+        <v>358.53999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>445.56548003381334</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>381.70064255870915</v>
+      </c>
+      <c r="F9">
+        <v>471.73869548081979</v>
+      </c>
+      <c r="G9">
+        <v>533.85710373880988</v>
+      </c>
+      <c r="H9">
+        <v>532.07007646605791</v>
+      </c>
+      <c r="I9">
+        <v>392.96851913882887</v>
+      </c>
+      <c r="J9">
+        <v>549.21399847992802</v>
+      </c>
+      <c r="K9">
+        <v>461.66570688083851</v>
+      </c>
+      <c r="L9">
+        <v>363.11770019863405</v>
+      </c>
+      <c r="M9">
+        <v>433.63485429357672</v>
+      </c>
+      <c r="N9">
+        <v>521.90224141642454</v>
+      </c>
+      <c r="O9">
+        <v>369.40611154006058</v>
+      </c>
+      <c r="P9">
+        <v>439.81872957822475</v>
+      </c>
+      <c r="Q9">
+        <v>489.47853764812157</v>
+      </c>
+      <c r="R9">
+        <v>378.4616586278886</v>
+      </c>
+      <c r="S9">
+        <v>380.68163132742546</v>
+      </c>
+      <c r="T9">
+        <v>409.0088837363366</v>
+      </c>
+      <c r="U9">
+        <v>594.76999671106751</v>
+      </c>
+      <c r="V9">
+        <v>433.28309806135894</v>
+      </c>
+      <c r="W9">
+        <v>498.9687854875811</v>
+      </c>
+      <c r="X9">
+        <v>463.05450884992871</v>
+      </c>
+      <c r="Y9">
+        <v>456.9003981577776</v>
+      </c>
+      <c r="Z9">
+        <v>382.79328319581043</v>
+      </c>
+      <c r="AA9">
+        <v>346.51116934953285</v>
+      </c>
+      <c r="AB9">
+        <v>481.31308919506893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>453.27744500866089</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>385.99862483791964</v>
+      </c>
+      <c r="F10">
+        <v>462.83795150748807</v>
+      </c>
+      <c r="G10">
+        <v>363.78899710373884</v>
+      </c>
+      <c r="H10">
+        <v>299.91172034877326</v>
+      </c>
+      <c r="I10">
+        <v>342.33561702548809</v>
+      </c>
+      <c r="J10">
+        <v>372.40188670282589</v>
+      </c>
+      <c r="K10">
+        <v>427.23422142002732</v>
+      </c>
+      <c r="L10">
+        <v>545.07611010584742</v>
+      </c>
+      <c r="M10">
+        <v>478.4207168897147</v>
+      </c>
+      <c r="N10">
+        <v>491.42079270261547</v>
+      </c>
+      <c r="O10">
+        <v>409.24367843143079</v>
+      </c>
+      <c r="P10">
+        <v>379.13795422524652</v>
+      </c>
+      <c r="Q10">
+        <v>440.09156045751638</v>
+      </c>
+      <c r="R10">
+        <v>408.80675419336262</v>
+      </c>
+      <c r="S10">
+        <v>453.91326219087836</v>
+      </c>
+      <c r="T10">
+        <v>457.55854587611793</v>
+      </c>
+      <c r="U10">
+        <v>484.97284852409155</v>
+      </c>
+      <c r="V10">
+        <v>527.72279885422552</v>
+      </c>
+      <c r="W10">
+        <v>537.79597545351305</v>
+      </c>
+      <c r="X10">
+        <v>535.06942356625564</v>
+      </c>
+      <c r="Y10">
+        <v>478.23937134155415</v>
+      </c>
+      <c r="Z10">
+        <v>580.03325198672485</v>
+      </c>
+      <c r="AA10">
+        <v>533.87981687793331</v>
+      </c>
+      <c r="AB10">
+        <v>429.47294555698113</v>
       </c>
     </row>
   </sheetData>
